--- a/tests/metadata-generation/fixtures/cirp-ptw.xlsx
+++ b/tests/metadata-generation/fixtures/cirp-ptw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breurather\src\icodaq\versions - Kopie\CIRP-PTW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breurather\src\icoweb\tests\metadata-generation\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA29F46-506B-4616-BC00-D4AACFF2B881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F77C71-09E5-40EB-89DB-122526A0E248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="6" xr2:uid="{2B21317E-79C0-4BD6-8C8B-33401DD0D856}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{2B21317E-79C0-4BD6-8C8B-33401DD0D856}"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <author>Breurather, Moritz</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CC4224B5-E9B3-405D-90D5-96B44D273950}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A068E534-9E11-4D48-A1B2-271D6427F23A}">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C382A9DF-664F-4E55-B767-617B33E9D791}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{029885BC-221F-4672-8126-5B0D2E43DAF8}">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{388F6109-06A3-4903-B8AE-1EAF4A6C68C6}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{59B2303E-DB38-458F-8BBE-CEE8D4DFABDF}">
       <text>
         <r>
           <rPr>
@@ -375,9 +375,6 @@
     <t>boolean</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>twm_layer</t>
   </si>
   <si>
@@ -472,9 +469,6 @@
   </si>
   <si>
     <t>Thread Milling</t>
-  </si>
-  <si>
-    <t>file</t>
   </si>
   <si>
     <t>files</t>
@@ -845,6 +839,12 @@
   </si>
   <si>
     <t>Pictures(s) of the setup in the machine tool.</t>
+  </si>
+  <si>
+    <t>float_qty</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -907,15 +907,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -925,7 +922,133 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1322,851 +1445,868 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CAD10C-4E89-4AC8-9C59-7B36AAFDF76D}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="29.84375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.3046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.4609375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.4609375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.07421875" style="5"/>
+    <col min="1" max="1" width="29.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="2" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="3" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="E50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="A51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="C1:E24 C29:E34 C36:E1048576">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="suggestions">
+  <conditionalFormatting sqref="C29:E34 C1:E24 C36:E1048576">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="suggestions">
       <formula>NOT(ISERROR(SEARCH("suggestions",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Dropdown">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Dropdown">
       <formula>NOT(ISERROR(SEARCH("Dropdown",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:E35">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="suggestions">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="suggestions">
       <formula>NOT(ISERROR(SEARCH("suggestions",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Dropdown">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Dropdown">
       <formula>NOT(ISERROR(SEARCH("Dropdown",C35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:E25">
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="suggestions">
+      <formula>NOT(ISERROR(SEARCH("suggestions",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Dropdown">
+      <formula>NOT(ISERROR(SEARCH("Dropdown",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="suggestions">
+      <formula>NOT(ISERROR(SEARCH("suggestions",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Dropdown">
+      <formula>NOT(ISERROR(SEARCH("Dropdown",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:E27">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="suggestions">
+      <formula>NOT(ISERROR(SEARCH("suggestions",D27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Dropdown">
+      <formula>NOT(ISERROR(SEARCH("Dropdown",D27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:E28">
     <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="suggestions">
+      <formula>NOT(ISERROR(SEARCH("suggestions",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Dropdown">
+      <formula>NOT(ISERROR(SEARCH("Dropdown",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="suggestions">
       <formula>NOT(ISERROR(SEARCH("suggestions",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Dropdown">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Dropdown">
       <formula>NOT(ISERROR(SEARCH("Dropdown",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:E26">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="suggestions">
+  <conditionalFormatting sqref="C26">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="suggestions">
       <formula>NOT(ISERROR(SEARCH("suggestions",C26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Dropdown">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Dropdown">
       <formula>NOT(ISERROR(SEARCH("Dropdown",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:E27">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="suggestions">
+  <conditionalFormatting sqref="C27">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="suggestions">
       <formula>NOT(ISERROR(SEARCH("suggestions",C27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Dropdown">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Dropdown">
       <formula>NOT(ISERROR(SEARCH("Dropdown",C27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:E28">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="suggestions">
-      <formula>NOT(ISERROR(SEARCH("suggestions",C28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Dropdown">
-      <formula>NOT(ISERROR(SEARCH("Dropdown",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2203,7 +2343,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -2211,7 +2351,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -2220,86 +2360,86 @@
         <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>85</v>
+      <c r="A6" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2385,58 +2525,58 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
         <v>149</v>
-      </c>
-      <c r="B8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
         <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2494,7 +2634,7 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
@@ -2503,10 +2643,10 @@
         <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -2517,7 +2657,7 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
         <v>78</v>
@@ -2526,10 +2666,10 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2540,30 +2680,30 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -2571,96 +2711,96 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2682,11 +2822,11 @@
         <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B2" s="4"/>
+      <c r="B2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2715,7 +2855,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -2723,7 +2863,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -2731,7 +2871,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -2740,54 +2880,54 @@
         <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>235</v>
+      <c r="A8" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -2796,12 +2936,12 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -2809,128 +2949,128 @@
       <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>230</v>
+      <c r="E9" s="7" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>121</v>
+      <c r="B17" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>121</v>
+      <c r="B18" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -2943,8 +3083,8 @@
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>121</v>
+      <c r="B19" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -2957,8 +3097,8 @@
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>121</v>
+      <c r="B20" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -2968,25 +3108,25 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>121</v>
+      <c r="B21" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>122</v>
+      <c r="D21" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>121</v>
+      <c r="B22" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -2999,8 +3139,8 @@
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>121</v>
+      <c r="B23" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -3013,8 +3153,8 @@
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>121</v>
+      <c r="B24" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -3027,8 +3167,8 @@
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>121</v>
+      <c r="B25" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
@@ -3041,8 +3181,8 @@
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>121</v>
+      <c r="B26" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -3053,23 +3193,23 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C28" t="s">
@@ -3080,7 +3220,7 @@
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C29" t="s">
@@ -3088,7 +3228,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="5"/>
+      <c r="B30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3148,7 +3288,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -3156,7 +3296,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -3164,7 +3304,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -3173,273 +3313,273 @@
         <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="9">
-        <v>8</v>
-      </c>
-      <c r="E5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>160</v>
+      <c r="A8" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>187</v>
+      <c r="A9" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>189</v>
+      <c r="A11" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>191</v>
+      <c r="A13" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>193</v>
+      <c r="A15" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
-      <c r="B21" s="5"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="5"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3482,8 +3622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB419CFD-8D63-4604-B9FB-5116F92A3DFA}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3500,7 +3640,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -3508,7 +3648,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -3516,7 +3656,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -3525,54 +3665,54 @@
         <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>235</v>
+      <c r="A8" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -3581,12 +3721,12 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -3594,128 +3734,128 @@
       <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>230</v>
+      <c r="E9" s="7" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>121</v>
+      <c r="B17" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>121</v>
+      <c r="B18" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -3728,8 +3868,8 @@
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>121</v>
+      <c r="B19" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -3742,8 +3882,8 @@
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>121</v>
+      <c r="B20" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -3753,25 +3893,25 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>121</v>
+      <c r="B21" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>122</v>
+      <c r="D21" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>121</v>
+      <c r="B22" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -3784,8 +3924,8 @@
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>121</v>
+      <c r="B23" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -3798,8 +3938,8 @@
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>121</v>
+      <c r="B24" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -3812,8 +3952,8 @@
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>121</v>
+      <c r="B25" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
@@ -3826,8 +3966,8 @@
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>121</v>
+      <c r="B26" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -3838,23 +3978,23 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C28" t="s">
@@ -3865,7 +4005,7 @@
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C29" t="s">
@@ -3930,7 +4070,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -3938,7 +4078,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -3946,7 +4086,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -3955,273 +4095,273 @@
         <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="9">
-        <v>8</v>
-      </c>
-      <c r="E5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>160</v>
+      <c r="A8" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>187</v>
+      <c r="A9" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>189</v>
+      <c r="A11" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>191</v>
+      <c r="A13" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>193</v>
+      <c r="A15" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
-      <c r="B21" s="5"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="5"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4288,7 +4428,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -4296,7 +4436,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -4305,101 +4445,101 @@
         <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
@@ -4410,7 +4550,7 @@
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
@@ -4421,7 +4561,7 @@
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
@@ -4432,7 +4572,7 @@
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
@@ -4443,7 +4583,7 @@
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
@@ -4454,7 +4594,7 @@
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
@@ -4465,7 +4605,7 @@
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
@@ -4476,21 +4616,21 @@
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
@@ -4499,7 +4639,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
@@ -4512,28 +4652,28 @@
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
         <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
